--- a/项目文件/项目计划表.xlsx
+++ b/项目文件/项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>任务人</t>
   </si>
@@ -24,18 +24,12 @@
     <t>计划完成时间</t>
   </si>
   <si>
-    <t>7/24进度</t>
-  </si>
-  <si>
     <t>7/25进度</t>
   </si>
   <si>
     <t>7/26进度</t>
   </si>
   <si>
-    <t>今日问题</t>
-  </si>
-  <si>
     <t>主页</t>
   </si>
   <si>
@@ -45,7 +39,7 @@
     <t>周四晚上（7/26）</t>
   </si>
   <si>
-    <t>公共footer</t>
+    <t>布局基本完成，公共footer组件全部完成</t>
   </si>
   <si>
     <t>搜索页</t>
@@ -54,13 +48,22 @@
     <t>黄乐乐</t>
   </si>
   <si>
+    <t>布局已完成，功能实现一小部分</t>
+  </si>
+  <si>
     <t>房源列表页</t>
   </si>
   <si>
+    <t>无进度</t>
+  </si>
+  <si>
     <t>房源详情页</t>
   </si>
   <si>
     <t>师旭腾</t>
+  </si>
+  <si>
+    <t>布局基本完成，功能暂未实现</t>
   </si>
   <si>
     <t>订单页</t>
@@ -85,10 +88,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,8 +121,137 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,142 +264,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -278,6 +274,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -290,175 +448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,17 +465,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -531,15 +516,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -551,6 +527,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,157 +554,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -732,13 +728,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1089,110 +1082,112 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="22.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="20.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="24.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18" style="3" customWidth="1"/>
-    <col min="7" max="7" width="44" style="3" customWidth="1"/>
+    <col min="4" max="4" width="44.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="2:5">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="C2:C8"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1213,7 +1208,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>

--- a/项目文件/项目计划表.xlsx
+++ b/项目文件/项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>任务人</t>
   </si>
@@ -42,6 +42,9 @@
     <t>布局基本完成，公共footer组件全部完成</t>
   </si>
   <si>
+    <t>布局完成，功能完成一半</t>
+  </si>
+  <si>
     <t>搜索页</t>
   </si>
   <si>
@@ -51,12 +54,18 @@
     <t>布局已完成，功能实现一小部分</t>
   </si>
   <si>
+    <t>布局完成，功能未实现</t>
+  </si>
+  <si>
     <t>房源列表页</t>
   </si>
   <si>
     <t>无进度</t>
   </si>
   <si>
+    <t>布局完成，此页面无功能</t>
+  </si>
+  <si>
     <t>房源详情页</t>
   </si>
   <si>
@@ -70,6 +79,9 @@
   </si>
   <si>
     <t>李冰心</t>
+  </si>
+  <si>
+    <t>布局完成，功能基本完成</t>
   </si>
   <si>
     <t>支付页</t>
@@ -86,8 +98,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -121,6 +133,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -136,8 +163,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,6 +179,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -159,31 +233,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,20 +257,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,46 +276,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -274,49 +286,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,127 +454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,26 +480,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,7 +499,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,30 +536,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -565,6 +544,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -573,10 +585,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,133 +597,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,7 +1097,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1094,7 +1106,7 @@
     <col min="2" max="2" width="20.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="24.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="44.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18" style="3" customWidth="1"/>
+    <col min="5" max="5" width="46.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -1111,7 +1123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1124,65 +1136,83 @@
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>12</v>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1208,7 +1238,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
